--- a/biology/Botanique/Sloanea_sinemariensis/Sloanea_sinemariensis.xlsx
+++ b/biology/Botanique/Sloanea_sinemariensis/Sloanea_sinemariensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sloanea sinemariensis est une espèce d'arbre sud-américain, de la famille des Elaeocarpaceae (anciennement dans les Tiliaceae).
 L'épithète spécifique sinemariensis fait référence au nom du fleuve Sinnamary en Guyane.
-Il est connu en Guyane sous les noms génériques de Busi kuswe (Nenge tongo), Roucou sauvage, Roucou grand-bois, Châtaignier pays (Créole), Kusuweran (Kali'na), Irapkamwi (Palikur), Ulukupala-ni (Wayãpi), Alotasi (Aluku), Urucurana (Portugais), Broadleaf (créole du Guyana), Rafroe njannjan (Sranan tongo)[4].
+Il est connu en Guyane sous les noms génériques de Busi kuswe (Nenge tongo), Roucou sauvage, Roucou grand-bois, Châtaignier pays (Créole), Kusuweran (Kali'na), Irapkamwi (Palikur), Ulukupala-ni (Wayãpi), Alotasi (Aluku), Urucurana (Portugais), Broadleaf (créole du Guyana), Rafroe njannjan (Sranan tongo).
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sloanea sinemariensis est un arbre haut de 15–30 m, pour 40 cm de diamètre, doté de hauts contreforts raides et ramifiés, et d'un tronc cannelé au-dessus des contreforts, avec l'écorce brun rougeâtre.
 On le reconnaît à ses fleurs de couleur blanc verdâtre à jaunâtre et ses capsules couvertes d'épines rouges, s'ouvrant pars des valves de couleur rose à l'intérieur.
@@ -543,7 +557,7 @@
 L'ovaire est long de 1,5-2 mm, de forme ovoïde, à 4 angles, densément pubescent, comportant 4 loges.
 Le style est long de 2,5-3 mm, courtement quadrilobé, apprimé pubérulent dans sa moitié inférieure.
 Le fruit est un capsule contenant une graine solitaire, mesurant 2-2,7 x 1-1,8 cm (sans les épines), de forme ellipsoïde, à apex et à base aigus, légèrement et finement pubérulents, à 4 valves épaisses d'environ 2 mm, densément épineuses.
-Les épines sont monomorphes, longues jusqu'à 8 à 10(13) mm pour 0,4–0,5 mm de diamètre, droites, s'amenuisant de la base à l'apex, pointues, de section cylindrique, portant de minuscules poils antrorse épars, persistantes[5],[6].
+Les épines sont monomorphes, longues jusqu'à 8 à 10(13) mm pour 0,4–0,5 mm de diamètre, droites, s'amenuisant de la base à l'apex, pointues, de section cylindrique, portant de minuscules poils antrorse épars, persistantes,.
 </t>
         </is>
       </c>
@@ -572,11 +586,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Sloanea sinemariensis a souvent été utilisé à tort pour diverses espèces des Antilles et du nord de l'Amérique du Sud (ex : S. eichleri, S. dentata et S. grandiflora[7]).
-L'espèce n'était en effet connue que du spécimen de type de Aublet (fertile avec un jeune bouton floral) jusqu'en 1996, et la plupart des auteurs, y compris la dernière monographie[8] ne se sont appuyés que sur la planche plutôt rudimentaire de l'ouvrage d'Aublet, qui montre de larges feuilles et une courte inflorescence d'un type couramment observé chez plusieurs autres espèces. Cependant, au cours des dernières années, plusieurs nouvelles collections fertiles très similaires au type ont été collectées, il est donc maintenant possible de le placer avec une certaine confiance. Elle possède un calice de 4 sépales valvulaires enserrant complètement le bouton floral, ce qui la distingue immédiatement des espèces S. eichleri, S. dentata et S. grandiflora avec lesquelles elles étaient autrefois confondues. Ces derniers sont tous caractérisés par des sépales plus nombreux à estivation ouverte, avec les étamines exposées en bouton. Cependant, dans le grand groupe d'espèces ayant 4 sépales valvulaires entourant le bouton floral, il est inhabituel d'avoir de si petites fleurs.
-Les spécimens stériles peuvent être confondus avec S. usurpatrix, il peut donc y avoir des doutes concernant les identifications des spécimens en Amazonie centrale[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Sloanea sinemariensis a souvent été utilisé à tort pour diverses espèces des Antilles et du nord de l'Amérique du Sud (ex : S. eichleri, S. dentata et S. grandiflora).
+L'espèce n'était en effet connue que du spécimen de type de Aublet (fertile avec un jeune bouton floral) jusqu'en 1996, et la plupart des auteurs, y compris la dernière monographie ne se sont appuyés que sur la planche plutôt rudimentaire de l'ouvrage d'Aublet, qui montre de larges feuilles et une courte inflorescence d'un type couramment observé chez plusieurs autres espèces. Cependant, au cours des dernières années, plusieurs nouvelles collections fertiles très similaires au type ont été collectées, il est donc maintenant possible de le placer avec une certaine confiance. Elle possède un calice de 4 sépales valvulaires enserrant complètement le bouton floral, ce qui la distingue immédiatement des espèces S. eichleri, S. dentata et S. grandiflora avec lesquelles elles étaient autrefois confondues. Ces derniers sont tous caractérisés par des sépales plus nombreux à estivation ouverte, avec les étamines exposées en bouton. Cependant, dans le grand groupe d'espèces ayant 4 sépales valvulaires entourant le bouton floral, il est inhabituel d'avoir de si petites fleurs.
+Les spécimens stériles peuvent être confondus avec S. usurpatrix, il peut donc y avoir des doutes concernant les identifications des spécimens en Amazonie centrale.
 </t>
         </is>
       </c>
@@ -605,9 +621,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sloanea sinemariensis est présent du Venezuela (Amazonas : río Mawarinuma), à l'Amazonie brésilienne, en passant par le Guyana, le Suriname[9], la Guyane[6], et le Pérou amazonien[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sloanea sinemariensis est présent du Venezuela (Amazonas : río Mawarinuma), à l'Amazonie brésilienne, en passant par le Guyana, le Suriname, la Guyane, et le Pérou amazonien.
 </t>
         </is>
       </c>
@@ -636,9 +654,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sloanea sinemariensis est affectionne les forêts sempervirentes de plaine, autour de 100–200 m d'altitude au Venezuela[6], et généralement, dans les forêts pluviales anciennes de plaine, sur les sols de sables bruns ou granitiques, et les latosols jaunes d'Amazonie centrale, jusqu'à 450 m d'altitude. Il semble qu'il fleurit en novembre et que ses fruits sont mûrs en avril[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sloanea sinemariensis est affectionne les forêts sempervirentes de plaine, autour de 100–200 m d'altitude au Venezuela, et généralement, dans les forêts pluviales anciennes de plaine, sur les sols de sables bruns ou granitiques, et les latosols jaunes d'Amazonie centrale, jusqu'à 450 m d'altitude. Il semble qu'il fleurit en novembre et que ses fruits sont mûrs en avril.
 </t>
         </is>
       </c>
@@ -667,9 +687,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La décoction d'écorce de Sloanea spp. est réputée fébrifuge en Guyane. Les feuilles servent à confectionner des paniers pour transporter les cassaves au Guyana. Le bois sert à la construction de la charpente des carbets[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La décoction d'écorce de Sloanea spp. est réputée fébrifuge en Guyane. Les feuilles servent à confectionner des paniers pour transporter les cassaves au Guyana. Le bois sert à la construction de la charpente des carbets.
 </t>
         </is>
       </c>
@@ -698,9 +720,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[10] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « SLOANEA (Sinemarienſis) foliis ſubrotundis, integerrimis ; fructu parvo, acuteis hiſpido. (Tabula 212.) 
 Arbor trunco quadraginta &amp; quinquaginta-pedali, in cacumine ramos plures, hinc &amp; indè ſparſis emittente. Folia alterna, ſubovata, ampla, rigida, glabra, integerrima, apice ſæpiùs emarginata, longè petiolata, ſubpendula. Stipulæ binæ, oblongæ ,anguſtæ acutæ, deciduæ Flores corymboſi, axillares ; ſinguli pedunculati, pedunculo ad baſim squamula munico.
 Florebat, fructumque ferebat Novembri.
